--- a/Data/2016/List Of Political Parties Participated.xlsx
+++ b/Data/2016/List Of Political Parties Participated.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikail Files\EL AN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBF62A3-2EFC-4110-95B8-44704151EF4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="19815" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="1590" windowWidth="20490" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WorksheetName" sheetId="2" r:id="rId1"/>
@@ -379,9 +385,6 @@
     <t>Naam Tamilar Katchi</t>
   </si>
   <si>
-    <t>ntk</t>
-  </si>
-  <si>
     <t>People's Party of India(secular)</t>
   </si>
   <si>
@@ -584,13 +587,16 @@
   </si>
   <si>
     <t>NOTA</t>
+  </si>
+  <si>
+    <t>NTK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -627,6 +633,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -673,7 +687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,9 +719,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,6 +771,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -914,20 +964,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +985,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -946,7 +996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -957,7 +1007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -968,7 +1018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -979,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -990,7 +1040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +1073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1056,7 +1106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1067,7 +1117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1078,7 +1128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1089,7 +1139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1100,7 +1150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1111,7 +1161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1133,7 +1183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1144,7 +1194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1155,7 +1205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1166,7 +1216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1177,7 +1227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1188,7 +1238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1199,7 +1249,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1210,7 +1260,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1221,7 +1271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1232,7 +1282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1243,7 +1293,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1254,7 +1304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1265,7 +1315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1276,7 +1326,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1287,7 +1337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1298,7 +1348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1309,7 +1359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1320,7 +1370,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1331,7 +1381,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1342,7 +1392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1353,7 +1403,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1364,7 +1414,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1375,7 +1425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1386,7 +1436,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1397,7 +1447,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1408,7 +1458,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1419,7 +1469,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1430,7 +1480,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1441,7 +1491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1452,7 +1502,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1463,7 +1513,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1474,7 +1524,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1485,7 +1535,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1496,7 +1546,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -1507,7 +1557,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -1518,7 +1568,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -1529,7 +1579,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -1540,7 +1590,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -1551,7 +1601,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -1562,7 +1612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -1570,370 +1620,370 @@
         <v>120</v>
       </c>
       <c r="C59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>122</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>124</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>126</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>128</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>130</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>132</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>134</v>
       </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>136</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>138</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>140</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>142</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>144</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>146</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>148</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>47</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>150</v>
       </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>152</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>154</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>47</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>156</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>158</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>160</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>47</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>162</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>164</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>166</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>168</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>170</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>172</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>174</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>176</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>178</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>180</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>47</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>182</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
         <v>184</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>185</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
         <v>187</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>188</v>
-      </c>
-      <c r="C92" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2016/List Of Political Parties Participated.xlsx
+++ b/Data/2016/List Of Political Parties Participated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikail Files\EL AN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBF62A3-2EFC-4110-95B8-44704151EF4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A44179-C5E9-4F1B-9668-700062A7867C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1590" windowWidth="20490" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,9 +289,6 @@
     <t>Gokula Makkal Katchi</t>
   </si>
   <si>
-    <t>GokMK</t>
-  </si>
-  <si>
     <t>Ganasangam Party of India</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>Jan Shakti Dal</t>
   </si>
   <si>
-    <t>JaSD</t>
-  </si>
-  <si>
     <t>Jebamani Janata</t>
   </si>
   <si>
@@ -343,9 +337,6 @@
     <t>Makkal Kootamaipu Katchi</t>
   </si>
   <si>
-    <t>MakKK</t>
-  </si>
-  <si>
     <t>Manithaneya Makkal Katchi</t>
   </si>
   <si>
@@ -361,9 +352,6 @@
     <t>Makkalatchi Katchi</t>
   </si>
   <si>
-    <t>MKat</t>
-  </si>
-  <si>
     <t>Makkal Manadu Katchi</t>
   </si>
   <si>
@@ -418,9 +406,6 @@
     <t>Republican Sena</t>
   </si>
   <si>
-    <t>rpsn</t>
-  </si>
-  <si>
     <t>Rashtriya Samaj Paksha</t>
   </si>
   <si>
@@ -430,9 +415,6 @@
     <t>Rashtriya Janta Party</t>
   </si>
   <si>
-    <t>RtrJP</t>
-  </si>
-  <si>
     <t>Samata Party</t>
   </si>
   <si>
@@ -442,15 +424,9 @@
     <t>Samajwadi Samaj Party</t>
   </si>
   <si>
-    <t>SaSaP</t>
-  </si>
-  <si>
     <t>Sainik Samaj Party</t>
   </si>
   <si>
-    <t>SaSP</t>
-  </si>
-  <si>
     <t>Socialistic Democratic Party</t>
   </si>
   <si>
@@ -478,21 +454,12 @@
     <t>Super Nation Party</t>
   </si>
   <si>
-    <t>SuNP</t>
-  </si>
-  <si>
     <t>Tamizhaga Vaazhvurimai Katchi</t>
   </si>
   <si>
-    <t>tavk</t>
-  </si>
-  <si>
     <t>Thozhilalar Party</t>
   </si>
   <si>
-    <t>ThP</t>
-  </si>
-  <si>
     <t>Tamil Maanila Congress  (Moopanar)</t>
   </si>
   <si>
@@ -590,6 +557,39 @@
   </si>
   <si>
     <t>NTK</t>
+  </si>
+  <si>
+    <t>TAVK</t>
+  </si>
+  <si>
+    <t>MKAT</t>
+  </si>
+  <si>
+    <t>RPSN</t>
+  </si>
+  <si>
+    <t>RTRJP</t>
+  </si>
+  <si>
+    <t>SASAP</t>
+  </si>
+  <si>
+    <t>SASP</t>
+  </si>
+  <si>
+    <t>SUNP</t>
+  </si>
+  <si>
+    <t>THP</t>
+  </si>
+  <si>
+    <t>GOKMK</t>
+  </si>
+  <si>
+    <t>JASD</t>
+  </si>
+  <si>
+    <t>MAKKK</t>
   </si>
 </sst>
 </file>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1444,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1452,10 +1452,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
         <v>90</v>
-      </c>
-      <c r="C44" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,10 +1463,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
         <v>92</v>
-      </c>
-      <c r="C45" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,10 +1474,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
         <v>94</v>
-      </c>
-      <c r="C46" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,10 +1485,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1496,10 +1496,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,10 +1507,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1518,10 +1518,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,10 +1529,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,10 +1540,10 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1551,10 +1551,10 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,10 +1562,10 @@
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,10 +1573,10 @@
         <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1584,10 +1584,10 @@
         <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1595,10 +1595,10 @@
         <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,10 +1606,10 @@
         <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1617,10 +1617,10 @@
         <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,10 +1628,10 @@
         <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,10 +1639,10 @@
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,10 +1650,10 @@
         <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,10 +1661,10 @@
         <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,10 +1672,10 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,10 +1683,10 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,10 +1694,10 @@
         <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,10 +1705,10 @@
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1716,10 +1716,10 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1727,10 +1727,10 @@
         <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,10 +1738,10 @@
         <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,10 +1749,10 @@
         <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,10 +1760,10 @@
         <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1771,10 +1771,10 @@
         <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,10 +1782,10 @@
         <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,10 +1793,10 @@
         <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,10 +1804,10 @@
         <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,10 +1815,10 @@
         <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1826,10 +1826,10 @@
         <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,10 +1837,10 @@
         <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,10 +1848,10 @@
         <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,10 +1859,10 @@
         <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,10 +1870,10 @@
         <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,10 +1881,10 @@
         <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,10 +1892,10 @@
         <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,10 +1903,10 @@
         <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,10 +1914,10 @@
         <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1925,10 +1925,10 @@
         <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,10 +1936,10 @@
         <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,10 +1947,10 @@
         <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,32 +1958,32 @@
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
